--- a/Master.xlsx
+++ b/Master.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\node\appnode\api\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\node\appnode\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4381FDD9-D2F6-49BE-952C-8B4902C8C27D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657F37D6-0F2D-47A7-9952-68B78CFB0652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{526C6F19-5799-4646-BB1E-57043A0CD7A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{526C6F19-5799-4646-BB1E-57043A0CD7A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>c1</t>
   </si>
@@ -57,6 +58,21 @@
   </si>
   <si>
     <t>teste 3</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>idade</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Telma</t>
   </si>
 </sst>
 </file>
@@ -100,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475A4D0-423B-4472-801B-1A3DC9C5D991}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -471,4 +488,55 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9FA3F2-F16A-4816-A290-77FF75583B96}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>